--- a/output/ejecucion_10/gridsearch_results/gs_ci_Regression Forest_o.xlsx
+++ b/output/ejecucion_10/gridsearch_results/gs_ci_Regression Forest_o.xlsx
@@ -501,16 +501,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51.41903066635132</v>
+        <v>52.24223308563232</v>
       </c>
       <c r="C2">
-        <v>0.4938633272630616</v>
+        <v>0.6423327977683674</v>
       </c>
       <c r="D2">
-        <v>0.131256914138794</v>
+        <v>0.1230618953704834</v>
       </c>
       <c r="E2">
-        <v>0.008679591156547449</v>
+        <v>0.006746907579552208</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -522,10 +522,10 @@
         <v>15</v>
       </c>
       <c r="I2">
-        <v>0.05043495917006258</v>
+        <v>0.05043495917006247</v>
       </c>
       <c r="J2">
-        <v>0.06271157350327716</v>
+        <v>0.06271157350327727</v>
       </c>
       <c r="K2">
         <v>0.07043610886064944</v>
@@ -540,7 +540,7 @@
         <v>0.0596743148557757</v>
       </c>
       <c r="O2">
-        <v>0.00872362962394203</v>
+        <v>0.008723629623942061</v>
       </c>
       <c r="P2">
         <v>9</v>
@@ -551,16 +551,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>100.3922318935394</v>
+        <v>103.5548184871674</v>
       </c>
       <c r="C3">
-        <v>0.8402156855758943</v>
+        <v>0.986786114879778</v>
       </c>
       <c r="D3">
-        <v>0.1649943828582764</v>
+        <v>0.1568349361419678</v>
       </c>
       <c r="E3">
-        <v>0.001036464007440758</v>
+        <v>0.004691869017277983</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -601,16 +601,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>199.5458536624909</v>
+        <v>205.5370705127716</v>
       </c>
       <c r="C4">
-        <v>1.461066582162144</v>
+        <v>1.344591580181752</v>
       </c>
       <c r="D4">
-        <v>0.2455625057220459</v>
+        <v>0.2335883140563965</v>
       </c>
       <c r="E4">
-        <v>0.004000098262940758</v>
+        <v>0.002409144792046852</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -625,7 +625,7 @@
         <v>0.05778453894130497</v>
       </c>
       <c r="J4">
-        <v>0.06376911202772728</v>
+        <v>0.06376911202772706</v>
       </c>
       <c r="K4">
         <v>0.07025300794437173</v>
@@ -634,13 +634,13 @@
         <v>0.06769823321674795</v>
       </c>
       <c r="M4">
-        <v>0.04377342274239415</v>
+        <v>0.04377342274239393</v>
       </c>
       <c r="N4">
-        <v>0.06065566297450922</v>
+        <v>0.06065566297450913</v>
       </c>
       <c r="O4">
-        <v>0.009430310488666677</v>
+        <v>0.009430310488666742</v>
       </c>
       <c r="P4">
         <v>3</v>
@@ -651,16 +651,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>53.5343535900116</v>
+        <v>55.1805193901062</v>
       </c>
       <c r="C5">
-        <v>0.867297611241875</v>
+        <v>1.07666650973214</v>
       </c>
       <c r="D5">
-        <v>0.1267853736877441</v>
+        <v>0.1217877388000488</v>
       </c>
       <c r="E5">
-        <v>0.002961660577573128</v>
+        <v>0.002643214793456712</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -701,16 +701,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>105.0424887180328</v>
+        <v>107.7985196590424</v>
       </c>
       <c r="C6">
-        <v>1.333101291044736</v>
+        <v>1.257437960182435</v>
       </c>
       <c r="D6">
-        <v>0.1695200443267822</v>
+        <v>0.158759593963623</v>
       </c>
       <c r="E6">
-        <v>0.007090161953551845</v>
+        <v>0.005906263401212795</v>
       </c>
       <c r="F6">
         <v>20</v>
@@ -728,7 +728,7 @@
         <v>0.06518044030071835</v>
       </c>
       <c r="K6">
-        <v>0.06790449990426362</v>
+        <v>0.06790449990426328</v>
       </c>
       <c r="L6">
         <v>0.06639767436296096</v>
@@ -737,13 +737,13 @@
         <v>0.04750376893740527</v>
       </c>
       <c r="N6">
-        <v>0.06017903440186421</v>
+        <v>0.06017903440186414</v>
       </c>
       <c r="O6">
-        <v>0.008041724931557094</v>
+        <v>0.00804172493155703</v>
       </c>
       <c r="P6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>208.2047693252563</v>
+        <v>214.4146169185638</v>
       </c>
       <c r="C7">
-        <v>2.307360538611027</v>
+        <v>2.457618370252139</v>
       </c>
       <c r="D7">
-        <v>0.243134355545044</v>
+        <v>0.2368814945220947</v>
       </c>
       <c r="E7">
-        <v>0.003868930122654675</v>
+        <v>0.002542772111729986</v>
       </c>
       <c r="F7">
         <v>20</v>
@@ -772,7 +772,7 @@
         <v>20</v>
       </c>
       <c r="I7">
-        <v>0.05826070596202682</v>
+        <v>0.05826070596202659</v>
       </c>
       <c r="J7">
         <v>0.06608811015785543</v>
@@ -787,13 +787,13 @@
         <v>0.0435053021046341</v>
       </c>
       <c r="N7">
-        <v>0.06098234478299018</v>
+        <v>0.06098234478299014</v>
       </c>
       <c r="O7">
-        <v>0.00960565626951169</v>
+        <v>0.009605656269511702</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -801,16 +801,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>53.54178867340088</v>
+        <v>55.19571204185486</v>
       </c>
       <c r="C8">
-        <v>0.6729919414809014</v>
+        <v>0.7891283258177694</v>
       </c>
       <c r="D8">
-        <v>0.1299272060394287</v>
+        <v>0.1266088485717773</v>
       </c>
       <c r="E8">
-        <v>0.006257634198073687</v>
+        <v>0.005941773181504651</v>
       </c>
       <c r="F8">
         <v>30</v>
@@ -851,16 +851,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>104.9026312351227</v>
+        <v>107.9120018005371</v>
       </c>
       <c r="C9">
-        <v>1.082626168004477</v>
+        <v>1.243243183751596</v>
       </c>
       <c r="D9">
-        <v>0.1665583610534668</v>
+        <v>0.1571785449981689</v>
       </c>
       <c r="E9">
-        <v>0.003170618499151096</v>
+        <v>0.002780219591096113</v>
       </c>
       <c r="F9">
         <v>30</v>
@@ -893,7 +893,7 @@
         <v>0.00804172493155705</v>
       </c>
       <c r="P9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -901,16 +901,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>207.7637966156006</v>
+        <v>215.456885766983</v>
       </c>
       <c r="C10">
-        <v>3.398189526866638</v>
+        <v>2.920771124435057</v>
       </c>
       <c r="D10">
-        <v>0.246030855178833</v>
+        <v>0.2327301025390625</v>
       </c>
       <c r="E10">
-        <v>0.006843316416544892</v>
+        <v>0.006168691501040343</v>
       </c>
       <c r="F10">
         <v>30</v>
@@ -925,10 +925,10 @@
         <v>0.05826070596202682</v>
       </c>
       <c r="J10">
-        <v>0.06608811015785532</v>
+        <v>0.06608811015785543</v>
       </c>
       <c r="K10">
-        <v>0.07059301268848828</v>
+        <v>0.07059301268848817</v>
       </c>
       <c r="L10">
         <v>0.06646459300194629</v>
@@ -940,10 +940,10 @@
         <v>0.06098234478299016</v>
       </c>
       <c r="O10">
-        <v>0.009605656269511677</v>
+        <v>0.009605656269511667</v>
       </c>
       <c r="P10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
